--- a/documents/Tabelas.xlsx
+++ b/documents/Tabelas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leova\Desktop\Projetos\05_modelo_risco_de_credito\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leova\Desktop\Projetos\05_modelo_risco_de_credito\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB719B55-F746-4D72-B08B-B0D331A81A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349E405A-689A-4EAA-9E95-2D9DF6B5012F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="19200" windowWidth="16200" windowHeight="19200" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CRISP-DM" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Target Encoder" sheetId="6" r:id="rId4"/>
     <sheet name="Min-Max Scaler" sheetId="4" r:id="rId5"/>
     <sheet name="Correlação de Pearson" sheetId="5" r:id="rId6"/>
+    <sheet name="Planilha1" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="90">
   <si>
     <t>Compreensão dos dados</t>
   </si>
@@ -255,13 +256,58 @@
   </si>
   <si>
     <t>Média de Renda de cada Faixa</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>AUC</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>ROCP</t>
+  </si>
+  <si>
+    <t>Machine Learning</t>
+  </si>
+  <si>
+    <t>Risco de Crédito</t>
+  </si>
+  <si>
+    <t>Dentre todas as instâncias positivas, quantas foram classificadas corretamente</t>
+  </si>
+  <si>
+    <t>Dentre todos os inadimplentes, quantos foram classificados corretamente</t>
+  </si>
+  <si>
+    <t>Ponto de Vista</t>
+  </si>
+  <si>
+    <t>Mede a capacidade geral do modelo em distinguir bons e maus pagadores</t>
+  </si>
+  <si>
+    <t>Avalia a separabilidade entre as distribuições de probabilidade de duas classes</t>
+  </si>
+  <si>
+    <t>Mede a capacidade geral de classificação em diferentes pontos de corte</t>
+  </si>
+  <si>
+    <t>Avalia o quão boa é a distinção entre bons e maus pagadores</t>
+  </si>
+  <si>
+    <t>Negócios</t>
+  </si>
+  <si>
+    <t>Define o lucro obtido e expressa a eficiência financeira da metodologia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -331,8 +377,21 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="23">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -465,8 +524,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -692,11 +763,111 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -867,6 +1038,9 @@
     <xf numFmtId="2" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -894,17 +1068,42 @@
     <xf numFmtId="0" fontId="8" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1437,6 +1636,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF990000"/>
       <color rgb="FF8EC26A"/>
       <color rgb="FFFF6600"/>
       <color rgb="FFFF5050"/>
@@ -1444,7 +1644,6 @@
       <color rgb="FFB3F7A1"/>
       <color rgb="FFFFFF00"/>
       <color rgb="FFCC0000"/>
-      <color rgb="FF990000"/>
       <color rgb="FFFF7C80"/>
       <color rgb="FFCC9900"/>
     </mruColors>
@@ -3077,58 +3276,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="58"/>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
+      <c r="A1" s="59"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
     </row>
     <row r="3" spans="1:14" ht="67.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="58"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="59" t="s">
+      <c r="A3" s="59"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="58"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="59"/>
     </row>
     <row r="4" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="58"/>
-      <c r="B4" s="62"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="63"/>
       <c r="C4" s="9" t="s">
         <v>33</v>
       </c>
@@ -3159,12 +3358,12 @@
       <c r="L4" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="M4" s="63"/>
-      <c r="N4" s="58"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="59"/>
     </row>
     <row r="5" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="58"/>
-      <c r="B5" s="62"/>
+      <c r="A5" s="59"/>
+      <c r="B5" s="63"/>
       <c r="C5" s="9" t="s">
         <v>32</v>
       </c>
@@ -3195,12 +3394,12 @@
       <c r="L5" s="10">
         <v>9</v>
       </c>
-      <c r="M5" s="63"/>
-      <c r="N5" s="58"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="59"/>
     </row>
     <row r="6" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="58"/>
-      <c r="B6" s="62"/>
+      <c r="A6" s="59"/>
+      <c r="B6" s="63"/>
       <c r="C6" s="9" t="s">
         <v>50</v>
       </c>
@@ -3231,12 +3430,12 @@
       <c r="L6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="M6" s="63"/>
-      <c r="N6" s="58"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="59"/>
     </row>
     <row r="7" spans="1:14" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="58"/>
-      <c r="B7" s="62"/>
+      <c r="A7" s="59"/>
+      <c r="B7" s="63"/>
       <c r="C7" s="11" t="s">
         <v>31</v>
       </c>
@@ -3267,40 +3466,40 @@
       <c r="L7" s="16">
         <v>0.01</v>
       </c>
-      <c r="M7" s="63"/>
-      <c r="N7" s="58"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="59"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="58"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="58"/>
+      <c r="A8" s="59"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="59"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="58"/>
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
+      <c r="A9" s="59"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3379,12 +3578,12 @@
       <c r="G3" s="42"/>
     </row>
     <row r="4" spans="4:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="67"/>
     </row>
     <row r="5" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D5" s="40" t="s">
@@ -3550,7 +3749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4339C70-2C5A-4CF7-80AB-C45267A3A334}">
   <dimension ref="D3:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -3563,11 +3762,11 @@
   <sheetData>
     <row r="3" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="4:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="66"/>
-      <c r="F4" s="70" t="s">
+      <c r="E4" s="67"/>
+      <c r="F4" s="68" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3575,10 +3774,10 @@
       <c r="D5" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="69" t="s">
+      <c r="E5" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="70"/>
+      <c r="F5" s="68"/>
     </row>
     <row r="6" spans="4:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" s="44" t="s">
@@ -3587,7 +3786,7 @@
       <c r="E6" s="45">
         <v>0</v>
       </c>
-      <c r="F6" s="70"/>
+      <c r="F6" s="68"/>
     </row>
     <row r="7" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D7" s="44" t="s">
@@ -3596,7 +3795,7 @@
       <c r="E7" s="45">
         <v>4320</v>
       </c>
-      <c r="F7" s="70"/>
+      <c r="F7" s="68"/>
     </row>
     <row r="8" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D8" s="44" t="s">
@@ -3605,7 +3804,7 @@
       <c r="E8" s="45">
         <v>8978</v>
       </c>
-      <c r="F8" s="70"/>
+      <c r="F8" s="68"/>
     </row>
     <row r="9" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D9" s="44" t="s">
@@ -3614,7 +3813,7 @@
       <c r="E9" s="45">
         <v>11000</v>
       </c>
-      <c r="F9" s="70"/>
+      <c r="F9" s="68"/>
     </row>
     <row r="10" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D10" s="44" t="s">
@@ -3623,7 +3822,7 @@
       <c r="E10" s="45">
         <v>13750</v>
       </c>
-      <c r="F10" s="70"/>
+      <c r="F10" s="68"/>
     </row>
     <row r="11" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D11" s="44" t="s">
@@ -3632,7 +3831,7 @@
       <c r="E11" s="45">
         <v>6540</v>
       </c>
-      <c r="F11" s="70"/>
+      <c r="F11" s="68"/>
     </row>
     <row r="12" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D12" s="44" t="s">
@@ -3641,7 +3840,7 @@
       <c r="E12" s="45">
         <v>6214</v>
       </c>
-      <c r="F12" s="70"/>
+      <c r="F12" s="68"/>
     </row>
     <row r="13" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D13" s="44" t="s">
@@ -3650,7 +3849,7 @@
       <c r="E13" s="45">
         <v>3459</v>
       </c>
-      <c r="F13" s="70"/>
+      <c r="F13" s="68"/>
     </row>
     <row r="14" spans="4:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D14" s="46" t="s">
@@ -3659,7 +3858,7 @@
       <c r="E14" s="48">
         <v>3401</v>
       </c>
-      <c r="F14" s="70"/>
+      <c r="F14" s="68"/>
     </row>
     <row r="15" spans="4:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -3705,14 +3904,14 @@
       </c>
     </row>
     <row r="3" spans="2:10" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="68"/>
-      <c r="E3" s="67" t="s">
+      <c r="D3" s="70"/>
+      <c r="E3" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="F3" s="68"/>
+      <c r="F3" s="70"/>
     </row>
     <row r="4" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C4" s="49" t="s">
@@ -3982,4 +4181,104 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30D11193-3108-46D9-9952-8F63BD829A8F}">
+  <dimension ref="D5:H15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13:F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="38" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+    </row>
+    <row r="6" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E6" s="74" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="77" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" s="77" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" s="77" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="4:8" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="52"/>
+      <c r="E7" s="73" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="75" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" s="75" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" s="75" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="4:8" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="52"/>
+      <c r="E8" s="72" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="76" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="76" t="s">
+        <v>84</v>
+      </c>
+      <c r="H8" s="76" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="4:8" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="78" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="80" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+    </row>
+    <row r="10" spans="4:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E13" s="74" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="77" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="4:8" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E14" s="78" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="75" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="4:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F9:H9"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>